--- a/Leseplan.xlsx
+++ b/Leseplan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\C\Users\Rafiki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\Rafiki\Desktop\H18\Master\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +409,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,180 +489,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -668,16 +560,133 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,919 +977,998 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:H26"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="25" t="s">
+      <c r="L1" s="80"/>
+      <c r="M1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="P1" s="7" t="s">
+      <c r="N1" s="47"/>
+      <c r="P1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="S1" s="2" t="s">
+      <c r="Q1" s="15"/>
+      <c r="S1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="X1" s="3" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="X1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="37" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38" t="s">
+      <c r="J2" s="84"/>
+      <c r="K2" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="S2" s="9" t="s">
+      <c r="L2" s="70"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="S2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="X2" s="18" t="s">
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="X2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="43" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44" t="s">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="S3" s="13" t="s">
+      <c r="L3" s="53"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="S3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="X3" s="14" t="s">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="X3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="49" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50" t="s">
+      <c r="J4" s="63"/>
+      <c r="K4" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="51"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="S4" s="17" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="S4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="X4" s="18" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="X4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="S5" s="13" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="S5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="58" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60" t="s">
+      <c r="H7" s="72"/>
+      <c r="I7" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61" t="s">
+      <c r="J7" s="73"/>
+      <c r="K7" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="62"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="S7" s="13" t="s">
+      <c r="L7" s="75"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="S7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="28" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="63" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="67"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="S8" s="17" t="s">
+      <c r="L8" s="29"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="S8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71" t="s">
+      <c r="H9" s="32"/>
+      <c r="I9" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72" t="s">
+      <c r="J9" s="33"/>
+      <c r="K9" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="73"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66" t="s">
+      <c r="J10" s="27"/>
+      <c r="K10" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="67"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="77" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="77"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35" t="s">
+      <c r="D12" s="66"/>
+      <c r="E12" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="67"/>
+      <c r="G12" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37" t="s">
+      <c r="H12" s="68"/>
+      <c r="I12" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38" t="s">
+      <c r="J12" s="71"/>
+      <c r="K12" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="29" t="s">
+      <c r="L12" s="70"/>
+      <c r="M12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
+      <c r="N12" s="46"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42" t="s">
+      <c r="F13" s="49"/>
+      <c r="G13" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44" t="s">
+      <c r="J13" s="51"/>
+      <c r="K13" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48" t="s">
+      <c r="F14" s="61"/>
+      <c r="G14" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49" t="s">
+      <c r="H14" s="62"/>
+      <c r="I14" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50" t="s">
+      <c r="J14" s="63"/>
+      <c r="K14" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42" t="s">
+      <c r="F15" s="49"/>
+      <c r="G15" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="44" t="s">
+      <c r="J15" s="51"/>
+      <c r="K15" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36" t="s">
+      <c r="F17" s="67"/>
+      <c r="G17" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="29" t="s">
+      <c r="H17" s="68"/>
+      <c r="I17" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="38" t="s">
+      <c r="J17" s="46"/>
+      <c r="K17" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="39"/>
-      <c r="M17" s="29" t="s">
+      <c r="L17" s="70"/>
+      <c r="M17" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="29"/>
-      <c r="S17" s="4" t="s">
+      <c r="N17" s="46"/>
+      <c r="S17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="X17" s="5" t="s">
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="X17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="40" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43" t="s">
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44" t="s">
+      <c r="J18" s="51"/>
+      <c r="K18" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="30" t="s">
+      <c r="L18" s="53"/>
+      <c r="M18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="N18" s="30"/>
-      <c r="S18" s="19" t="s">
+      <c r="N18" s="7"/>
+      <c r="S18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="X18" s="20" t="s">
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="X18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="46" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="31" t="s">
+      <c r="L19" s="65"/>
+      <c r="M19" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="31"/>
-      <c r="S19" s="15" t="s">
+      <c r="N19" s="36"/>
+      <c r="S19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="X19" s="16" t="s">
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="X19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="X20" s="20" t="s">
+      <c r="L20" s="53"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="X20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="56" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="58" t="s">
+      <c r="D22" s="40"/>
+      <c r="E22" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="80" t="s">
+      <c r="F22" s="41"/>
+      <c r="G22" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="80"/>
-      <c r="I22" s="81" t="s">
+      <c r="H22" s="42"/>
+      <c r="I22" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="82"/>
-      <c r="K22" s="83" t="s">
+      <c r="J22" s="44"/>
+      <c r="K22" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="83"/>
-      <c r="M22" s="29" t="s">
+      <c r="L22" s="45"/>
+      <c r="M22" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="29"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
+      <c r="N22" s="46"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="28" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="33" t="s">
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="30"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
+      <c r="N23" s="7"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="31" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="31"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
+      <c r="N24" s="36"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="219">
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="X28:AA28"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="X18:AA18"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A7:B11"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A12:B16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A17:B21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="A22:B26"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="C26:D26"/>
@@ -1905,145 +1993,66 @@
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="A22:B26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="S12:V12"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A17:B21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A12:B16"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A7:B11"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="X28:AA28"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="S29:V29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Leseplan.xlsx
+++ b/Leseplan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,69 +489,110 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -560,131 +601,102 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -977,863 +989,1058 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="79" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="80"/>
-      <c r="M1" s="47" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="P1" s="15" t="s">
+      <c r="N1" s="76"/>
+      <c r="P1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="S1" s="16" t="s">
+      <c r="Q1" s="81"/>
+      <c r="S1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="X1" s="13" t="s">
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="X1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="84" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="69" t="s">
+      <c r="J2" s="23"/>
+      <c r="K2" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="S2" s="14" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="S2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="X2" s="10" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="X2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="51" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52" t="s">
+      <c r="J3" s="85"/>
+      <c r="K3" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="S3" s="11" t="s">
+      <c r="L3" s="88"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="S3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="X3" s="9" t="s">
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="X3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="63" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="S4" s="12" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="S4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="X4" s="10" t="s">
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="X4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="S5" s="11" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="S5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="72" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="73" t="s">
+      <c r="H7" s="43"/>
+      <c r="I7" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="75"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="S7" s="11" t="s">
+      <c r="L7" s="48"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="S7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="24" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26" t="s">
+      <c r="F8" s="50"/>
+      <c r="G8" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27" t="s">
+      <c r="H8" s="51"/>
+      <c r="I8" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28" t="s">
+      <c r="J8" s="52"/>
+      <c r="K8" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="S8" s="12" t="s">
+      <c r="L8" s="36"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="S8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33" t="s">
+      <c r="H9" s="39"/>
+      <c r="I9" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34" t="s">
+      <c r="J9" s="40"/>
+      <c r="K9" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27" t="s">
+      <c r="H10" s="51"/>
+      <c r="I10" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28" t="s">
+      <c r="J10" s="52"/>
+      <c r="K10" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20" t="s">
+      <c r="H11" s="55"/>
+      <c r="I11" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="66" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67" t="s">
+      <c r="D12" s="62"/>
+      <c r="E12" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68" t="s">
+      <c r="F12" s="63"/>
+      <c r="G12" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="71" t="s">
+      <c r="H12" s="64"/>
+      <c r="I12" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="71"/>
-      <c r="K12" s="69" t="s">
+      <c r="J12" s="65"/>
+      <c r="K12" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="70"/>
-      <c r="M12" s="46" t="s">
+      <c r="L12" s="28"/>
+      <c r="M12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="46"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
+      <c r="N12" s="72"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="48" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49" t="s">
+      <c r="D13" s="66"/>
+      <c r="E13" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50" t="s">
+      <c r="F13" s="67"/>
+      <c r="G13" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51" t="s">
+      <c r="H13" s="68"/>
+      <c r="I13" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52" t="s">
+      <c r="J13" s="24"/>
+      <c r="K13" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="53"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62" t="s">
+      <c r="F14" s="60"/>
+      <c r="G14" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64" t="s">
+      <c r="J14" s="25"/>
+      <c r="K14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="65"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50" t="s">
+      <c r="F15" s="67"/>
+      <c r="G15" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51" t="s">
+      <c r="H15" s="68"/>
+      <c r="I15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52" t="s">
+      <c r="J15" s="24"/>
+      <c r="K15" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="53"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="66" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68" t="s">
+      <c r="F17" s="63"/>
+      <c r="G17" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="68"/>
-      <c r="I17" s="46" t="s">
+      <c r="H17" s="64"/>
+      <c r="I17" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="69" t="s">
+      <c r="J17" s="72"/>
+      <c r="K17" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="70"/>
-      <c r="M17" s="46" t="s">
+      <c r="L17" s="28"/>
+      <c r="M17" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="46"/>
-      <c r="S17" s="8" t="s">
+      <c r="N17" s="72"/>
+      <c r="S17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="X17" s="4" t="s">
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="X17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="48" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49" t="s">
+      <c r="D18" s="66"/>
+      <c r="E18" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51" t="s">
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52" t="s">
+      <c r="J18" s="24"/>
+      <c r="K18" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="53"/>
-      <c r="M18" s="7" t="s">
+      <c r="L18" s="30"/>
+      <c r="M18" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="S18" s="3" t="s">
+      <c r="N18" s="73"/>
+      <c r="S18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="X18" s="1" t="s">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="X18" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="60" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64" t="s">
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="65"/>
-      <c r="M19" s="36" t="s">
+      <c r="L19" s="32"/>
+      <c r="M19" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="36"/>
-      <c r="S19" s="5" t="s">
+      <c r="N19" s="74"/>
+      <c r="S19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="X19" s="2" t="s">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="X19" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="84"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="53"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="X20" s="1" t="s">
+      <c r="L20" s="30"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="X20" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
+      <c r="Y20" s="83"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="83"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="40" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41" t="s">
+      <c r="D22" s="44"/>
+      <c r="E22" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43" t="s">
+      <c r="H22" s="77"/>
+      <c r="I22" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45" t="s">
+      <c r="J22" s="79"/>
+      <c r="K22" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="46" t="s">
+      <c r="L22" s="80"/>
+      <c r="M22" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="46"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
+      <c r="N22" s="72"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="X22" s="83"/>
+      <c r="Y22" s="83"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="83"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="24" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26" t="s">
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="6" t="s">
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="7"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
+      <c r="N23" s="73"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="36"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
+      <c r="N24" s="74"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="83"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="84"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="83"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="84"/>
+      <c r="Z27" s="84"/>
+      <c r="AA27" s="84"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="84"/>
+      <c r="AA29" s="84"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="219">
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="X28:AA28"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="X17:AA17"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="A22:B26"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A17:B21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A12:B16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A7:B11"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -1858,201 +2065,6 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A7:B11"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A12:B16"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A17:B21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="A22:B26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="X28:AA28"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="X17:AA17"/>
-    <mergeCell ref="X18:AA18"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="S29:V29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Leseplan.xlsx
+++ b/Leseplan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\Rafiki\Desktop\H18\Master\Master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\(VMFR)Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,216 +489,217 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,863 +990,1058 @@
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="76" t="s">
+      <c r="L1" s="83"/>
+      <c r="M1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="P1" s="81" t="s">
+      <c r="N1" s="59"/>
+      <c r="P1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="S1" s="18" t="s">
+      <c r="Q1" s="13"/>
+      <c r="S1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="X1" s="21" t="s">
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="X1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="23" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="86" t="s">
+      <c r="J2" s="87"/>
+      <c r="K2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="87"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="S2" s="19" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="S2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="X2" s="17" t="s">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="X2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="85" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85" t="s">
+      <c r="J3" s="77"/>
+      <c r="K3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="S3" s="13" t="s">
+      <c r="L3" s="78"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="S3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="X3" s="16" t="s">
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="X3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="25" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="31" t="s">
+      <c r="J4" s="77"/>
+      <c r="K4" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="S4" s="20" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="S4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="X4" s="17" t="s">
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="X4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="S5" s="13" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="S5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45" t="s">
+      <c r="D7" s="88"/>
+      <c r="E7" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="43" t="s">
+      <c r="F7" s="88"/>
+      <c r="G7" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="46" t="s">
+      <c r="H7" s="88"/>
+      <c r="I7" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47" t="s">
+      <c r="J7" s="72"/>
+      <c r="K7" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="S7" s="13" t="s">
+      <c r="L7" s="74"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="S7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="49" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51" t="s">
+      <c r="F8" s="89"/>
+      <c r="G8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="35" t="s">
+      <c r="J8" s="25"/>
+      <c r="K8" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="S8" s="20" t="s">
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="S8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40" t="s">
+      <c r="H9" s="31"/>
+      <c r="I9" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41" t="s">
+      <c r="J9" s="32"/>
+      <c r="K9" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="35" t="s">
+      <c r="J10" s="25"/>
+      <c r="K10" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="62" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63" t="s">
+      <c r="D12" s="60"/>
+      <c r="E12" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64" t="s">
+      <c r="F12" s="61"/>
+      <c r="G12" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65" t="s">
+      <c r="H12" s="62"/>
+      <c r="I12" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="27" t="s">
+      <c r="J12" s="71"/>
+      <c r="K12" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="72" t="s">
+      <c r="L12" s="64"/>
+      <c r="M12" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="72"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
+      <c r="N12" s="45"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="66" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68" t="s">
+      <c r="F13" s="47"/>
+      <c r="G13" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="24" t="s">
+      <c r="H13" s="48"/>
+      <c r="I13" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="29" t="s">
+      <c r="J13" s="49"/>
+      <c r="K13" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61" t="s">
+      <c r="F14" s="66"/>
+      <c r="G14" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="25" t="s">
+      <c r="H14" s="67"/>
+      <c r="I14" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="31" t="s">
+      <c r="J14" s="68"/>
+      <c r="K14" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="32"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="24" t="s">
+      <c r="H15" s="48"/>
+      <c r="I15" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="29" t="s">
+      <c r="J15" s="49"/>
+      <c r="K15" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="62" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64" t="s">
+      <c r="F17" s="61"/>
+      <c r="G17" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="64"/>
-      <c r="I17" s="72" t="s">
+      <c r="H17" s="62"/>
+      <c r="I17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="27" t="s">
+      <c r="J17" s="45"/>
+      <c r="K17" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="72" t="s">
+      <c r="L17" s="64"/>
+      <c r="M17" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="72"/>
-      <c r="S17" s="22" t="s">
+      <c r="N17" s="45"/>
+      <c r="S17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="X17" s="6" t="s">
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="X17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="66" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="24" t="s">
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="29" t="s">
+      <c r="J18" s="49"/>
+      <c r="K18" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="73" t="s">
+      <c r="L18" s="51"/>
+      <c r="M18" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="N18" s="73"/>
-      <c r="S18" s="4" t="s">
+      <c r="N18" s="28"/>
+      <c r="S18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="X18" s="83" t="s">
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="X18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="59" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="31" t="s">
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="74" t="s">
+      <c r="L19" s="70"/>
+      <c r="M19" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="74"/>
-      <c r="S19" s="3" t="s">
+      <c r="N19" s="35"/>
+      <c r="S19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="X19" s="84" t="s">
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="X19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="84"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="29" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="X20" s="83" t="s">
+      <c r="L20" s="51"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="X20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y20" s="83"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="33" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="44" t="s">
+      <c r="B22" s="36"/>
+      <c r="C22" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="77" t="s">
+      <c r="F22" s="40"/>
+      <c r="G22" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="78" t="s">
+      <c r="H22" s="41"/>
+      <c r="I22" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80" t="s">
+      <c r="J22" s="43"/>
+      <c r="K22" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="80"/>
-      <c r="M22" s="72" t="s">
+      <c r="L22" s="44"/>
+      <c r="M22" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="72"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="83"/>
-      <c r="Z22" s="83"/>
-      <c r="AA22" s="83"/>
+      <c r="N22" s="45"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="82" t="s">
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="73"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
+      <c r="N23" s="28"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="74" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="74"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="83"/>
+      <c r="N24" s="35"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="83"/>
-      <c r="Z26" s="83"/>
-      <c r="AA26" s="83"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="X27" s="84"/>
-      <c r="Y27" s="84"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="84"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="83"/>
-      <c r="AA28" s="83"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="83"/>
-      <c r="AA30" s="83"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="219">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A7:B11"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:B16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="A22:B26"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A17:B21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="S12:V12"/>
     <mergeCell ref="X26:AA26"/>
     <mergeCell ref="X27:AA27"/>
     <mergeCell ref="X28:AA28"/>
@@ -1870,201 +2066,6 @@
     <mergeCell ref="S17:V17"/>
     <mergeCell ref="S18:V18"/>
     <mergeCell ref="S19:V19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="A22:B26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A17:B21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A12:B16"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A7:B11"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
